--- a/ExU/Documentation/FP-log-G54-9417-350-1201.xlsx
+++ b/ExU/Documentation/FP-log-G54-9417-350-1201.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Ensc_350\Assignments-350\1201\Labwork\FP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angus Kan\Documents\GitHub\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC6787F-6BB0-486B-95D5-E5DACEAF45A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Log - Part 1" sheetId="5" r:id="rId1"/>
     <sheet name="Activity Log - Part 2" sheetId="4" r:id="rId2"/>
     <sheet name="Activity Log - Part 3" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -123,11 +122,29 @@
   <si>
     <t>Gxx</t>
   </si>
+  <si>
+    <t>G54</t>
+  </si>
+  <si>
+    <t>Angus Kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started reading about project part two </t>
+  </si>
+  <si>
+    <t>Worked on SLL, SRL, and SRA</t>
+  </si>
+  <si>
+    <t>Completed Execution unit</t>
+  </si>
+  <si>
+    <t>Was able to run Functional simulation for Execution unit, also debugged SRA but couldn’t resolve the error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1009]d/mmm/yy;@"/>
     <numFmt numFmtId="165" formatCode="0000"/>
@@ -917,7 +934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E6E40-83BD-4CBB-97D3-102021CD8368}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I782"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -2680,11 +2697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD091BD6-3364-44DE-8BB4-985458F62AD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I782"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2704,7 +2721,9 @@
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="38" t="s">
@@ -2717,7 +2736,9 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="39">
+        <v>301309417</v>
+      </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="38"/>
@@ -2729,7 +2750,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -2764,57 +2785,97 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="13">
+        <v>9417</v>
+      </c>
+      <c r="C6" s="19">
+        <v>43930</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.875</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.92708333333333337</v>
+      </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="12">
         <f t="shared" ref="H6" si="0">(E6-D6)*24</f>
-        <v>0</v>
+        <v>1.2500000000000009</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C7" s="19">
+        <v>43930</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="F7" s="34"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="27">
         <f>(E7-D7)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1666666666666679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23"/>
+      <c r="B8" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C8" s="19">
+        <v>43931</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F8" s="34"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="27">
         <f t="shared" ref="H8:H71" si="1">(E8-D8)*24</f>
-        <v>0</v>
+        <v>1.2499999999999982</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C9" s="19">
+        <v>43931</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.98611111111111116</v>
+      </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.6666666666666687</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3718,7 +3779,7 @@
       <c r="F79" s="30"/>
       <c r="H79" s="29">
         <f>SUM(H6:H78)</f>
-        <v>0</v>
+        <v>5.3333333333333357</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4443,10 +4504,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I782"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/ExU/Documentation/FP-log-G54-9417-350-1201.xlsx
+++ b/ExU/Documentation/FP-log-G54-9417-350-1201.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -139,6 +139,33 @@
   </si>
   <si>
     <t>Was able to run Functional simulation for Execution unit, also debugged SRA but couldn’t resolve the error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took screen shots of functional simulation for logic unit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthesized the logic unit  and Took screen shots of timing simulation for logic unit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renamed the transcript file and summary files </t>
+  </si>
+  <si>
+    <t>Took screen shots of functional simulation of SRA64, SRL64 , and SLL64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renamed transcript files and summary files </t>
+  </si>
+  <si>
+    <t>Synthesized the Shift Unit and moved around files to set up for timing simulation</t>
+  </si>
+  <si>
+    <t>Took screenshots of timing simulation of SRL32, SLL32, and SRA32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took screenshots of timing simulation of the execution unit </t>
+  </si>
+  <si>
+    <t>Took screenshots of the Shift Unit in RTL</t>
   </si>
 </sst>
 </file>
@@ -2700,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I782"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,7 +2882,7 @@
         <v>1.2499999999999982</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33"/>
       <c r="B9" s="14">
         <v>9417</v>
@@ -2878,121 +2905,211 @@
         <v>1.6666666666666687</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C10" s="19">
+        <v>43935</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F10" s="34"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H10" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.49999999999999822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C11" s="19">
+        <v>43935</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.6875</v>
+      </c>
       <c r="F11" s="34"/>
-      <c r="G11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="23"/>
+      <c r="B12" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C12" s="19">
+        <v>43935</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.6875</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.69097222222222221</v>
+      </c>
       <c r="F12" s="34"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8.3333333333333037E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C13" s="19">
+        <v>43935</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.74305555555555547</v>
+      </c>
       <c r="F13" s="34"/>
-      <c r="G13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="H13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1666666666666625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C14" s="19">
+        <v>43935</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.75347222222222221</v>
+      </c>
       <c r="F14" s="34"/>
-      <c r="G14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.16666666666666607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C15" s="19">
+        <v>43935</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0.82638888888888884</v>
+      </c>
       <c r="F15" s="34"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="H15" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8.3333333333333037E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="23"/>
+      <c r="B16" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C16" s="19">
+        <v>43935</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0.875</v>
+      </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1666666666666679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="23"/>
+      <c r="B17" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C17" s="19">
+        <v>43935</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="F17" s="34"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="H17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333215</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="23"/>
+      <c r="B18" s="14">
+        <v>9417</v>
+      </c>
+      <c r="C18" s="19">
+        <v>43935</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F18" s="34"/>
-      <c r="G18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.49999999999999822</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3779,7 +3896,7 @@
       <c r="F79" s="30"/>
       <c r="H79" s="29">
         <f>SUM(H6:H78)</f>
-        <v>5.3333333333333357</v>
+        <v>9.8333333333333268</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
